--- a/data/GitAndroidAnalysis/accuracy_analysis2/dsets/combined_data_set_4_1_colored.xlsx
+++ b/data/GitAndroidAnalysis/accuracy_analysis2/dsets/combined_data_set_4_1_colored.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResearchSpace\ResearchProjects\UMLx\data\GitAndroidAnalysis\accuracy_analysis2\dsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC78413-F7D7-4427-AA81-0D3C94CBFDF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D5182-1A96-483A-8817-DAA79B10B5B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="330" windowWidth="17250" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_data_set_4_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="213">
   <si>
     <t>Project</t>
   </si>
@@ -648,6 +648,18 @@
   </si>
   <si>
     <t>zero callgraph &amp; zero handlers</t>
+  </si>
+  <si>
+    <t>zero handlers, no flow droid results.</t>
+  </si>
+  <si>
+    <t>1 handler</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>zero callgraph &amp; zero handlers;no</t>
   </si>
 </sst>
 </file>
@@ -12755,14 +12767,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD3FC90-5B19-4A31-A890-9B7950053118}">
   <dimension ref="A1:DF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="topRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -13763,6 +13778,9 @@
       <c r="B4">
         <v>1167</v>
       </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
       <c r="D4">
         <v>7</v>
       </c>
@@ -15079,6 +15097,9 @@
       <c r="B8">
         <v>711</v>
       </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
       <c r="D8">
         <v>8</v>
       </c>
@@ -15408,6 +15429,9 @@
       <c r="B9" s="2">
         <v>713</v>
       </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
       <c r="D9" s="2">
         <v>8</v>
       </c>
@@ -17057,7 +17081,7 @@
         <v>4779</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D14" s="2">
         <v>7</v>
@@ -18043,14 +18067,14 @@
       </c>
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="2">
         <v>559</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2">
         <v>18</v>
@@ -18375,7 +18399,7 @@
       </c>
     </row>
     <row r="18" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="2">
@@ -20355,14 +20379,14 @@
       </c>
     </row>
     <row r="24" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="2">
         <v>4520</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -24013,6 +24037,9 @@
     <hyperlink ref="A32" r:id="rId27" xr:uid="{22382B6E-3A1B-4610-B9D2-D44EE78C8E65}"/>
     <hyperlink ref="A33" r:id="rId28" xr:uid="{E2464568-B473-460D-9E7A-6F1BC1B97038}"/>
     <hyperlink ref="A34" r:id="rId29" xr:uid="{0532D37C-0955-44A7-9E78-43A28C38ED38}"/>
+    <hyperlink ref="A17" r:id="rId30" xr:uid="{3772BCFD-8358-4ED6-9F43-20F6C87F7ABF}"/>
+    <hyperlink ref="A18" r:id="rId31" xr:uid="{861C8C9F-1CEE-42D9-BFA4-937BAB7B9CDA}"/>
+    <hyperlink ref="A24" r:id="rId32" xr:uid="{9710A3FA-6A94-4DDF-8C85-05FE00528E2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
